--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_191__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_191__Reeval_Halton_Modell_1.1.xlsx
@@ -5996,13 +5996,13 @@
                   <c:v>-1.217329025268555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.58525466918945</c:v>
+                  <c:v>49.58526229858398</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56.05680084228516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.70108413696289</c:v>
+                  <c:v>53.70108795166016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-1.217329025268555</c:v>
@@ -6014,10 +6014,10 @@
                   <c:v>-1.217329025268555</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.8101357221603394</c:v>
+                  <c:v>-0.8101332783699036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.24032592773438</c:v>
+                  <c:v>51.24032211303711</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-1.438975214958191</c:v>
@@ -6035,10 +6035,10 @@
                   <c:v>-5.356008529663086</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.23340904712677</c:v>
+                  <c:v>-1.233411550521851</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.67917251586914</c:v>
+                  <c:v>49.67917633056641</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-1.217329025268555</c:v>
@@ -6047,7 +6047,7 @@
                   <c:v>-1.217329025268555</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.14764785766602</c:v>
+                  <c:v>51.14763641357422</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-1.565339326858521</c:v>
@@ -6056,19 +6056,19 @@
                   <c:v>0.8951823115348816</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.7328885197639465</c:v>
+                  <c:v>-0.732886016368866</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.24722480773926</c:v>
+                  <c:v>19.24722290039062</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-1.217329025268555</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41.03899383544922</c:v>
+                  <c:v>41.03899765014648</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.53799057006836</c:v>
+                  <c:v>37.53798294067383</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-1.217329025268555</c:v>
@@ -6086,13 +6086,13 @@
                   <c:v>-1.217329025268555</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.265483260154724</c:v>
+                  <c:v>-1.265485763549805</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1.217329025268555</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.223792433738708</c:v>
+                  <c:v>-1.223790049552917</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1.217329025268555</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>50.29062652587891</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>34.7822265625</c:v>
+                  <c:v>34.78221893310547</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.9332976341247559</c:v>
@@ -6134,28 +6134,28 @@
                   <c:v>-0.08737708628177643</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>48.60598373413086</c:v>
+                  <c:v>48.60598754882812</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>28.43312454223633</c:v>
+                  <c:v>28.43313026428223</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>47.55794906616211</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51.4950065612793</c:v>
+                  <c:v>51.49501419067383</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10.54573726654053</c:v>
+                  <c:v>10.54573917388916</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>53.9462776184082</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.356590628623962</c:v>
+                  <c:v>-1.356595516204834</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>49.00523376464844</c:v>
+                  <c:v>49.00522994995117</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-2.98176121711731</c:v>
@@ -6191,10 +6191,10 @@
                   <c:v>-0.3565366268157959</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50.08086395263672</c:v>
+                  <c:v>50.08086013793945</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>46.37400054931641</c:v>
+                  <c:v>46.37399673461914</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>25.14987754821777</c:v>
@@ -6209,25 +6209,25 @@
                   <c:v>54.348876953125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>44.37738418579102</c:v>
+                  <c:v>44.37738037109375</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-1.446629762649536</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.871249675750732</c:v>
+                  <c:v>6.871251106262207</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>53.28200531005859</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>18.0980052947998</c:v>
+                  <c:v>18.09800910949707</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>34.46322250366211</c:v>
+                  <c:v>34.46321868896484</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.531224489212036</c:v>
+                  <c:v>3.531226873397827</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>57.2923583984375</c:v>
@@ -6242,7 +6242,7 @@
                   <c:v>-1.217329025268555</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.397952079772949</c:v>
+                  <c:v>6.397955894470215</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-1.217329025268555</c:v>
@@ -6257,10 +6257,10 @@
                   <c:v>-1.165117859840393</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>16.1711540222168</c:v>
+                  <c:v>16.17115783691406</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.7775114178657532</c:v>
+                  <c:v>-0.7775089740753174</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>39.11640548706055</c:v>
@@ -6272,7 +6272,7 @@
                   <c:v>-1.217329025268555</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>49.49636840820312</c:v>
+                  <c:v>49.49636459350586</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>54.5103759765625</c:v>
@@ -6281,7 +6281,7 @@
                   <c:v>49.12977981567383</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>33.93469619750977</c:v>
+                  <c:v>33.93470001220703</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>-1.217329025268555</c:v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>49.58525466918945</v>
+        <v>49.58526229858398</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>53.70108413696289</v>
+        <v>53.70108795166016</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.8101357221603394</v>
+        <v>-0.8101332783699036</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>51.24032592773438</v>
+        <v>51.24032211303711</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-1.23340904712677</v>
+        <v>-1.233411550521851</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>49.67917251586914</v>
+        <v>49.67917633056641</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>51.14764785766602</v>
+        <v>51.14763641357422</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.7328885197639465</v>
+        <v>-0.732886016368866</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>19.24722480773926</v>
+        <v>19.24722290039062</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>41.03899383544922</v>
+        <v>41.03899765014648</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>37.53799057006836</v>
+        <v>37.53798294067383</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1.265483260154724</v>
+        <v>-1.265485763549805</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-1.223792433738708</v>
+        <v>-1.223790049552917</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>33.8124</v>
       </c>
       <c r="F42">
-        <v>34.7822265625</v>
+        <v>34.78221893310547</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>48.60598373413086</v>
+        <v>48.60598754882812</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>28.43312454223633</v>
+        <v>28.43313026428223</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>51.4950065612793</v>
+        <v>51.49501419067383</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>10.54573726654053</v>
+        <v>10.54573917388916</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-1.356590628623962</v>
+        <v>-1.356595516204834</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>49.00523376464844</v>
+        <v>49.00522994995117</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>50.08086395263672</v>
+        <v>50.08086013793945</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>46.37400054931641</v>
+        <v>46.37399673461914</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>44.37738418579102</v>
+        <v>44.37738037109375</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>6.871249675750732</v>
+        <v>6.871251106262207</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>18.0980052947998</v>
+        <v>18.09800910949707</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>34.46322250366211</v>
+        <v>34.46321868896484</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>3.531224489212036</v>
+        <v>3.531226873397827</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>6.397952079772949</v>
+        <v>6.397955894470215</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>16.1711540222168</v>
+        <v>16.17115783691406</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-0.7775114178657532</v>
+        <v>-0.7775089740753174</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>46.3967</v>
       </c>
       <c r="F97">
-        <v>49.49636840820312</v>
+        <v>49.49636459350586</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>33.93469619750977</v>
+        <v>33.93470001220703</v>
       </c>
     </row>
     <row r="101" spans="1:6">
